--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3527.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3527.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.690770625412154</v>
+        <v>1.519122004508972</v>
       </c>
       <c r="B1">
-        <v>2.444847236301702</v>
+        <v>1.816242694854736</v>
       </c>
       <c r="C1">
-        <v>2.740163182589204</v>
+        <v>1.939616203308105</v>
       </c>
       <c r="D1">
-        <v>3.234546786583429</v>
+        <v>1.541638374328613</v>
       </c>
       <c r="E1">
-        <v>2.356847103900937</v>
+        <v>1.350109934806824</v>
       </c>
     </row>
   </sheetData>
